--- a/Excels/UG.xlsx
+++ b/Excels/UG.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23103239\Documents\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="946">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2757,13 +2757,132 @@
   </si>
   <si>
     <t>161020000012</t>
+  </si>
+  <si>
+    <t>Loan Services</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Credited On</t>
+  </si>
+  <si>
+    <t>Current Outstanding</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Total Loan Eligibility</t>
+  </si>
+  <si>
+    <t>Number of Loan Taken</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Total Loan Paid</t>
+  </si>
+  <si>
+    <t>Total Current Outstanding</t>
+  </si>
+  <si>
+    <t>Loan History</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Amount Credited</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Loan Channel</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Loan Recoveries</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Amount Recovered</t>
+  </si>
+  <si>
+    <t>Recovery Method</t>
+  </si>
+  <si>
+    <t>Date Recovered</t>
+  </si>
+  <si>
+    <t>More Recharge History</t>
+  </si>
+  <si>
+    <t>BenefitsVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Old Expiry Date</t>
+  </si>
+  <si>
+    <t>Detailed Usage History</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>Remaining Balance</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Search Tune Tab</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Renewal Amount</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Row9</t>
+  </si>
+  <si>
+    <t>Row10</t>
+  </si>
+  <si>
+    <t>Loan Amount (USh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3055,7 +3174,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3223,6 +3342,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3243,6 +3366,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3510,13 +3686,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3710,8 +3886,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3945,7 +4121,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4250,25 +4426,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>847</v>
       </c>
@@ -4296,8 +4475,14 @@
       <c r="I1" s="67" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="67" t="s">
+        <v>943</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>154</v>
       </c>
@@ -4319,8 +4504,10 @@
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>860</v>
       </c>
@@ -4342,8 +4529,10 @@
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>865</v>
       </c>
@@ -4365,8 +4554,10 @@
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
       <c r="I4" s="67"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>868</v>
       </c>
@@ -4394,8 +4585,10 @@
       <c r="I5" s="67" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>874</v>
       </c>
@@ -4415,8 +4608,10 @@
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>876</v>
       </c>
@@ -4436,8 +4631,10 @@
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>878</v>
       </c>
@@ -4459,8 +4656,10 @@
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>881</v>
       </c>
@@ -4482,9 +4681,201 @@
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>906</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>911</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>917</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
+        <v>930</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>866</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>931</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>859</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>932</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>933</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>886</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>934</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>935</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>863</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>936</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
+        <v>939</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13998,9 +14389,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -14124,7 +14515,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Excels/UG.xlsx
+++ b/Excels/UG.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="951">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2877,6 +2877,21 @@
   </si>
   <si>
     <t>Loan Amount (USh)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3403,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,10 +4441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,6 +4887,29 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87" t="s">
+        <v>946</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>947</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>948</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>949</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>950</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/UG.xlsx
+++ b/Excels/UG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -2720,9 +2720,6 @@
     <t>Home broadband</t>
   </si>
   <si>
-    <t>Rm9yZ290QDEyMw</t>
-  </si>
-  <si>
     <t>cml5YUAyMTA2</t>
   </si>
   <si>
@@ -2892,6 +2889,9 @@
   </si>
   <si>
     <t>Next Reset Date</t>
+  </si>
+  <si>
+    <t>Tm90ZXBhZEAxMjM</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3701,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3762,7 +3762,7 @@
         <v>23103239</v>
       </c>
       <c r="B2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -3776,7 +3776,7 @@
         <v>23101480</v>
       </c>
       <c r="B3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -3789,8 +3789,8 @@
       <c r="A4">
         <v>2394650</v>
       </c>
-      <c r="B4" t="s">
-        <v>893</v>
+      <c r="B4" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
@@ -3804,7 +3804,7 @@
         <v>23103239</v>
       </c>
       <c r="B5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -4443,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -4491,10 +4491,10 @@
         <v>855</v>
       </c>
       <c r="J1" s="67" t="s">
+        <v>942</v>
+      </c>
+      <c r="K1" s="67" t="s">
         <v>943</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -4502,7 +4502,7 @@
         <v>154</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C2" s="67" t="s">
         <v>856</v>
@@ -4552,7 +4552,7 @@
         <v>865</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C4" s="67" t="s">
         <v>862</v>
@@ -4598,7 +4598,7 @@
         <v>873</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -4701,22 +4701,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
+        <v>905</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>909</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>910</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -4726,22 +4726,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>915</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>916</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -4751,28 +4751,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
+        <v>916</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>924</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -4780,19 +4780,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>928</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>929</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -4803,10 +4803,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>862</v>
@@ -4815,22 +4815,22 @@
         <v>866</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>859</v>
       </c>
       <c r="G14" s="87" t="s">
+        <v>931</v>
+      </c>
+      <c r="H14" s="87" t="s">
         <v>932</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>933</v>
       </c>
       <c r="I14" s="87" t="s">
         <v>886</v>
       </c>
       <c r="J14" s="87" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K14" s="87" t="s">
         <v>873</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>127</v>
@@ -4850,13 +4850,13 @@
         <v>863</v>
       </c>
       <c r="E15" s="87" t="s">
+        <v>935</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>937</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>938</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>866</v>
@@ -4867,16 +4867,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
+        <v>938</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>941</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>942</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>108</v>
@@ -4890,19 +4890,19 @@
     </row>
     <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
+        <v>945</v>
+      </c>
+      <c r="B17" s="87" t="s">
         <v>946</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="C17" s="87" t="s">
         <v>947</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="D17" s="87" t="s">
         <v>948</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="E17" s="87" t="s">
         <v>949</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>950</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -5416,7 +5416,7 @@
         <v>891</v>
       </c>
       <c r="AL2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="33" x14ac:dyDescent="0.3">
@@ -5476,7 +5476,7 @@
         <v>891</v>
       </c>
       <c r="AL3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="33" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>891</v>
       </c>
       <c r="AL4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="33" x14ac:dyDescent="0.3">
@@ -5596,7 +5596,7 @@
         <v>891</v>
       </c>
       <c r="AL5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="33" x14ac:dyDescent="0.3">
@@ -5656,7 +5656,7 @@
         <v>891</v>
       </c>
       <c r="AL6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="33" x14ac:dyDescent="0.3">
@@ -5716,7 +5716,7 @@
         <v>891</v>
       </c>
       <c r="AL7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="33" x14ac:dyDescent="0.3">
@@ -5776,7 +5776,7 @@
         <v>891</v>
       </c>
       <c r="AL8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="33" x14ac:dyDescent="0.3">
